--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/77.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/77.xlsx
@@ -479,13 +479,13 @@
         <v>-21.61150275022093</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.57841744587525</v>
+        <v>-12.490958002033</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.400037686955686</v>
+        <v>-6.385360888341207</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.463328598164682</v>
+        <v>-3.47818140102637</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-21.27706521001012</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.88049451316132</v>
+        <v>-12.79524001141606</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.32371051174941</v>
+        <v>-6.315971213879084</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.857035432150477</v>
+        <v>-3.869013498974418</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.94606219087644</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.32021179077165</v>
+        <v>-13.2318234356247</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.263429057080349</v>
+        <v>-6.2605103199808</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.214397389087624</v>
+        <v>-4.219946411881573</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-20.64984899473806</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.54508655062227</v>
+        <v>-13.46549351882889</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.940974609172973</v>
+        <v>-5.940114143964396</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.454760522692631</v>
+        <v>-4.466733700509706</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-20.38040008763266</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.91935958231208</v>
+        <v>-13.85073259292119</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.766412618989775</v>
+        <v>-5.768079770331393</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.50948317655401</v>
+        <v>-4.529273876351282</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-20.14824308604013</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.73152140304399</v>
+        <v>-14.66119792827028</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.59948236852583</v>
+        <v>-5.600733954283761</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.491183623851147</v>
+        <v>-4.505430189861338</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-19.92536077249484</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.14865146892917</v>
+        <v>-15.07843555230654</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.315098617091122</v>
+        <v>-5.31952316830568</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.527606725009663</v>
+        <v>-4.542787091331435</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-19.71965463504602</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.68325459181259</v>
+        <v>-15.61252044046206</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.071249621590005</v>
+        <v>-5.071347401727343</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.221418002948514</v>
+        <v>-4.240113565207597</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-19.50640297938629</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.34482522302978</v>
+        <v>-16.27934186505433</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.934049421883771</v>
+        <v>-4.935677461170454</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.347060590421362</v>
+        <v>-4.360681363552587</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-19.28165110506115</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.90326714339628</v>
+        <v>-16.83283122146463</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.989842768249004</v>
+        <v>-4.992301938703062</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.003314517608572</v>
+        <v>-4.013517874939823</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-19.04896879653056</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.76452437108575</v>
+        <v>-17.70280554839782</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.880734802000063</v>
+        <v>-4.878666752095358</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.74467138732817</v>
+        <v>-3.755466314490318</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-18.79722615846517</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.52064839510908</v>
+        <v>-18.45819622139111</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.767896523511666</v>
+        <v>-4.767138727447294</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.298569066749649</v>
+        <v>-3.309852894598488</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-18.55731181721774</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.30817451023861</v>
+        <v>-19.24720859460818</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.649025210549497</v>
+        <v>-4.655938266259314</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.866928428483462</v>
+        <v>-2.87981585058465</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-18.3317666104772</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.11810205483234</v>
+        <v>-20.05561076905943</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.43794722807731</v>
+        <v>-4.436260520708225</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.647167569815635</v>
+        <v>-2.661683031203506</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-18.14214404669432</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.77077958255862</v>
+        <v>-20.70437220228531</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.150605627488118</v>
+        <v>-4.14908025734564</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.044871257852915</v>
+        <v>-2.053945254597909</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-17.99866781926692</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.88443178975257</v>
+        <v>-21.81770173502605</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.920499630289899</v>
+        <v>-3.915043498626422</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.833587937092318</v>
+        <v>-1.840872557324022</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-17.88520112631549</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.5827188625403</v>
+        <v>-22.50838151312886</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.484942897523314</v>
+        <v>-3.477399159927664</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.471038743869373</v>
+        <v>-1.473395245179226</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-17.80446010623962</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.47214654779694</v>
+        <v>-23.39810253879751</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.299351307848355</v>
+        <v>-3.291069330215801</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.119783156509002</v>
+        <v>-1.113583895801754</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-17.7229429435376</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.13219669787852</v>
+        <v>-24.06035274196921</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.978133778678309</v>
+        <v>-2.965833037401151</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.447283059503034</v>
+        <v>-1.435740114290248</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-17.62754304761912</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.80096883621069</v>
+        <v>-24.72246116394177</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.74257653882348</v>
+        <v>-2.733287425776342</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.385138893217678</v>
+        <v>-1.376270234761094</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-17.49921182126492</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.39016260977007</v>
+        <v>-25.312505624696</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.517090653114496</v>
+        <v>-2.502814753063104</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.685367915908058</v>
+        <v>-1.676905045021428</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-17.31428724816843</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.83124880930314</v>
+        <v>-25.75652033934234</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.259684441571424</v>
+        <v>-2.250136211160339</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.781045780293584</v>
+        <v>-1.777046572676447</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-17.07798903398073</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.23824396395321</v>
+        <v>-26.15718911910663</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.089581225650852</v>
+        <v>-2.087938519343568</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.202238610885173</v>
+        <v>-2.192436152117009</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-16.77452078782092</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.60495614652333</v>
+        <v>-26.5250013282218</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.87726143543447</v>
+        <v>-1.873531123195014</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.194377087843174</v>
+        <v>-2.184990194658697</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-16.41547272047697</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.71107692957659</v>
+        <v>-26.63318282766947</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.905407447967299</v>
+        <v>-1.904507870703787</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.683258218507201</v>
+        <v>-2.672585516516726</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-16.00354749022461</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.85947784401492</v>
+        <v>-26.78179885840995</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.760355503232799</v>
+        <v>-1.758219007231957</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.81642498754823</v>
+        <v>-2.810846630713081</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-15.53644764202361</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.7520150285767</v>
+        <v>-26.6804130785073</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.66565055121379</v>
+        <v>-1.670187549586287</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.876232208551201</v>
+        <v>-2.870487625482576</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-15.03162567515185</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.632520367239</v>
+        <v>-26.55422047776192</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.836594676315471</v>
+        <v>-1.836399116040794</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.973415887051736</v>
+        <v>-2.975268820654297</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-14.48659815304099</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.60743731750829</v>
+        <v>-26.53578403286679</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.939576716960168</v>
+        <v>-1.93320145200571</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.312605405464562</v>
+        <v>-3.314673455369267</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-13.92215539885489</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.26796423669719</v>
+        <v>-26.19834477891231</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.003065360133925</v>
+        <v>-2.004409837022326</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.429125106123745</v>
+        <v>-3.424724999943522</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-13.34732697653484</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.00682282390779</v>
+        <v>-25.94077234113577</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.994446041027554</v>
+        <v>-1.992343768074781</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.502245092825325</v>
+        <v>-3.495659600575591</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.76369115180644</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.58520464971878</v>
+        <v>-25.52441962734243</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.926801742016919</v>
+        <v>-1.92827333308386</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.497796096576433</v>
+        <v>-3.494510683961866</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-12.18133800818734</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.11291191935419</v>
+        <v>-25.05506519010486</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.157122855517282</v>
+        <v>-2.153451211360229</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.069973772673307</v>
+        <v>-3.078817986095556</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.58899115413246</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.64524418948571</v>
+        <v>-24.58911350164666</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.173740589857926</v>
+        <v>-2.174244157565218</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.162747566979885</v>
+        <v>-3.162009326942981</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.00485059872213</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.27108849396071</v>
+        <v>-24.21370133135686</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.293193694637259</v>
+        <v>-2.292499455662157</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.030563488319105</v>
+        <v>-3.021636161780119</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-10.44278193520249</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.8547748922223</v>
+        <v>-23.8035429892639</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.260921360308753</v>
+        <v>-2.260109785168845</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.6011864602323</v>
+        <v>-2.592127130507906</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.919662925213595</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.55655525135422</v>
+        <v>-23.50470244452372</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.394616142091409</v>
+        <v>-2.396982421414996</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.303421497002845</v>
+        <v>-2.293076358472453</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.458735615858236</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.07643033198884</v>
+        <v>-23.02244591816437</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.21164017109025</v>
+        <v>-2.213620218871351</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.126688787770736</v>
+        <v>-2.119413945552767</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.061341172794274</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.39594902221042</v>
+        <v>-22.34864299176615</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.432305496028457</v>
+        <v>-2.439585227253293</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.701780311960291</v>
+        <v>-1.689538238765536</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.747764493685022</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.85650578252875</v>
+        <v>-21.81363897031964</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.406911994361701</v>
+        <v>-2.410202295983134</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.473644584529439</v>
+        <v>-1.454201004219718</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.517506047048977</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.18111881790566</v>
+        <v>-21.1398702669695</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.55950767669185</v>
+        <v>-2.566156726030854</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.174471587322313</v>
+        <v>-1.156416484962796</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.373754022358151</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.69350394002016</v>
+        <v>-20.658904438423</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.422283031951281</v>
+        <v>-2.435962473164909</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.071342876471609</v>
+        <v>-1.047308518713855</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.320304352826696</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.88772227324957</v>
+        <v>-19.85092271856231</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.42415552158131</v>
+        <v>-2.432276161987255</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.014390835478917</v>
+        <v>-0.9913782801563479</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.345262445555505</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.50006314075815</v>
+        <v>-19.46574720155928</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.395760169698268</v>
+        <v>-2.407811571625213</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7874529147304585</v>
+        <v>-0.766615967463667</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.456192792767027</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.84570379466966</v>
+        <v>-18.80499303448886</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.449969477838621</v>
+        <v>-2.464509384260825</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.7630421034439522</v>
+        <v>-0.7399659910321136</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.638901421935106</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.38170770895822</v>
+        <v>-18.34884380479882</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.439839455610373</v>
+        <v>-2.452746433739028</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.9805882420010666</v>
+        <v>-0.9587099362716223</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.890976772253797</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.8036168699936</v>
+        <v>-17.76590796002909</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.563340658075511</v>
+        <v>-2.575792958565544</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.098970654276545</v>
+        <v>-1.070267294960888</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.2047279451265</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.29782466457691</v>
+        <v>-17.26477497815657</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.55603648181634</v>
+        <v>-2.574541372807613</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.230612053175097</v>
+        <v>-1.198256605729854</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.56265922666867</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.86875564392273</v>
+        <v>-16.83170186087838</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.749474927512697</v>
+        <v>-2.76771092312629</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.535676303656856</v>
+        <v>-1.506586712798712</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.962128132592857</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.41401444821037</v>
+        <v>-16.37898960301579</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.583766928765482</v>
+        <v>-2.598037939810006</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.685196800667716</v>
+        <v>-1.652895132298009</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.38107142681845</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.93472066001236</v>
+        <v>-15.90017493749074</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.586392325453015</v>
+        <v>-2.60212026054388</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.954625080096532</v>
+        <v>-1.912564954020463</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.81665330330508</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.60359311392308</v>
+        <v>-15.55971427729251</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.639643388247453</v>
+        <v>-2.651015218219897</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.131788021932929</v>
+        <v>-2.103348668988084</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.25854270455039</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.04827526894454</v>
+        <v>-15.00544756879037</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.51356567916345</v>
+        <v>-2.528980717814833</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.21977058950993</v>
+        <v>-2.189840089470677</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.69634639863622</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.48503234383474</v>
+        <v>-14.43852811051664</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.585786088601518</v>
+        <v>-2.599059742245192</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.449729916502142</v>
+        <v>-2.420268761122112</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.13196700987891</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.21051949726433</v>
+        <v>-14.16781402228183</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.478535944962005</v>
+        <v>-2.499812902846819</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.607517724124955</v>
+        <v>-2.582138889478799</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.5471320689691</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.93701867511537</v>
+        <v>-13.89325228564275</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.625069258777179</v>
+        <v>-2.63874381098394</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.701283986825517</v>
+        <v>-2.676330495776782</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.94395192851594</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.39488648165691</v>
+        <v>-13.34211454153543</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.572849776431661</v>
+        <v>-2.60034555105119</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.045812300737013</v>
+        <v>-3.022002837295137</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-13.31122252633876</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.02436820724089</v>
+        <v>-12.98105649540689</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.78404998407552</v>
+        <v>-2.808778580808375</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.027786532418697</v>
+        <v>-3.001566788591433</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-13.63917094398807</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.48290091871633</v>
+        <v>-12.44072345647545</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.780256114746793</v>
+        <v>-2.800770387560369</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.857971767903273</v>
+        <v>-2.84135403356263</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.92864318682281</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.26143868565882</v>
+        <v>-12.21744251286345</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.820365527082964</v>
+        <v>-2.843221634185791</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.09131428764739</v>
+        <v>-3.074090316455249</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-14.16357841713823</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.91610857462114</v>
+        <v>-11.87268441562921</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.725015226157522</v>
+        <v>-2.748492237132447</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.187177934293858</v>
+        <v>-3.177663926930842</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-14.35072748850122</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.74500311229286</v>
+        <v>-11.70472258471634</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.874041933474823</v>
+        <v>-2.898873199351884</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.290023082746282</v>
+        <v>-3.276260528415916</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-14.48348300370129</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.71255966272401</v>
+        <v>-11.66786925095354</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.926271193834075</v>
+        <v>-2.94683435671632</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.253404421313089</v>
+        <v>-3.247376275846182</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.56002291634318</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.45273339278181</v>
+        <v>-11.41037014827999</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.117235802055773</v>
+        <v>-3.139412337204099</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.248833199892523</v>
+        <v>-3.241054789967261</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.58743681082246</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.41070260074695</v>
+        <v>-11.37849871251458</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.9444729663996</v>
+        <v>-2.969455791489535</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.529823980561593</v>
+        <v>-3.525458097429438</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.55758771584077</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.31346514317088</v>
+        <v>-11.28284040415652</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.250984362913965</v>
+        <v>-3.277380110988439</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.621683530584058</v>
+        <v>-3.61673585563474</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.48581445398852</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.31816347876998</v>
+        <v>-11.29103926867234</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.344775070648862</v>
+        <v>-3.367650733779157</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.520329529226044</v>
+        <v>-3.512600009369451</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-14.37342505782867</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.27463176162697</v>
+        <v>-11.24841690680657</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.196535493437134</v>
+        <v>-3.225898868679825</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.532596047455133</v>
+        <v>-3.527565259389078</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-14.22819623790159</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.19682321734002</v>
+        <v>-11.18203886057447</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.221396093355396</v>
+        <v>-3.249150985338872</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.490883040866615</v>
+        <v>-3.481447257613469</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.06562971797363</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.24152340712422</v>
+        <v>-11.22041756447975</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.309437329014801</v>
+        <v>-3.338028241172519</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.569806278719223</v>
+        <v>-3.56283944393387</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-13.88425559491837</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.40604826620964</v>
+        <v>-11.39043277827672</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.384894260998766</v>
+        <v>-3.413485173156485</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.663582319433519</v>
+        <v>-3.652176266413006</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-13.7061325980752</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.34110758799641</v>
+        <v>-11.32141955734335</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.582718145854745</v>
+        <v>-3.613362440896569</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.502841551663089</v>
+        <v>-3.491406164601375</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-13.53394824499214</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.51399264882426</v>
+        <v>-11.50074832922179</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.653999865974365</v>
+        <v>-3.677007532290067</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.230538536196527</v>
+        <v>-3.21758755700607</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-13.37710835546379</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.56331783910456</v>
+        <v>-11.5529238105055</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.713489301530986</v>
+        <v>-3.736956534492178</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.213749686615541</v>
+        <v>-3.198970218856858</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.24642631901072</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.91402096868897</v>
+        <v>-11.90057619980496</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.814950861040073</v>
+        <v>-3.84405022991195</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.028524772455602</v>
+        <v>-3.020511690200728</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-13.13319778875952</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.31907518761288</v>
+        <v>-12.314919531776</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.859377266439729</v>
+        <v>-3.886154357049822</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.950442443784103</v>
+        <v>-2.935418525682073</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.05143617065605</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.67033566398012</v>
+        <v>-12.66374528272351</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.006555929161336</v>
+        <v>-4.034633495598029</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.654765086486821</v>
+        <v>-2.637399334095539</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.99205565516751</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.3120911503657</v>
+        <v>-13.30641501339322</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.238597973078853</v>
+        <v>-4.265184392421137</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.472023787815274</v>
+        <v>-2.451812633427447</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.9585580321388</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.86244665337432</v>
+        <v>-13.85335798960873</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.189639458313567</v>
+        <v>-4.21700322974769</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.145692357462435</v>
+        <v>-2.122694469160467</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.95367519049754</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.49260052646472</v>
+        <v>-14.48388831622788</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.283493723137734</v>
+        <v>-4.309297901381311</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.004908515722752</v>
+        <v>-1.976664723052584</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.96669790617634</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.05721237349726</v>
+        <v>-15.04561564920894</v>
       </c>
       <c r="F82" t="n">
-        <v>-4.530427681971874</v>
+        <v>-4.56003550755791</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.744260892626915</v>
+        <v>-1.726098232116326</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-13.01023664170413</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.67806246651992</v>
+        <v>-15.66486214797925</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.671099076553618</v>
+        <v>-4.698301510761132</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.660771322360609</v>
+        <v>-1.640472165849178</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-13.07169397016777</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.62346928040273</v>
+        <v>-16.6031261228295</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.642214823983884</v>
+        <v>-4.670311946448044</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.224657242811195</v>
+        <v>-1.20132201303541</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.15558553944877</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.49687569015649</v>
+        <v>-17.47760811409398</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.717388193569568</v>
+        <v>-4.744507514660345</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.316575460916063</v>
+        <v>-1.293636240696498</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.25963188210536</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.79738085079707</v>
+        <v>-18.78232270964697</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.835340373240758</v>
+        <v>-4.863026819128097</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.065466290217577</v>
+        <v>-1.0449080163422</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.37448571247017</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.7380551060327</v>
+        <v>-19.72043023627748</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.809795312361127</v>
+        <v>-4.840102265929134</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.224720799900465</v>
+        <v>-1.198740617409679</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-13.51161196249471</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.09593276225653</v>
+        <v>-21.07677763335196</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.837550204344604</v>
+        <v>-4.871514135049062</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9639265065986204</v>
+        <v>-0.9440722497120789</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-13.65937327625633</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.40764352663608</v>
+        <v>-22.38272914764228</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.024393379777492</v>
+        <v>-5.056167035405573</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.025894668636767</v>
+        <v>-1.001635416563136</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.83155648224912</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.97967435065138</v>
+        <v>-23.95717514104983</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.014982041558681</v>
+        <v>-5.048994862331808</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.233169003766494</v>
+        <v>-1.214820560994962</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-14.03007828413286</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.57014161956181</v>
+        <v>-25.54967134781004</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.194965940357288</v>
+        <v>-5.230328127025683</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.528699690857768</v>
+        <v>-1.506405819544636</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-14.25541690776212</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.20722801345172</v>
+        <v>-27.19131918510677</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.137749892993782</v>
+        <v>-5.167802618204709</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.989077911487681</v>
+        <v>-1.965737792705029</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-14.52256339072517</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.22305599130779</v>
+        <v>-29.1964255709037</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.23353531553038</v>
+        <v>-5.266364996641714</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.311459024292053</v>
+        <v>-2.29170254754285</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-14.81828565019039</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.26927159134517</v>
+        <v>-31.25235807208908</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.450949450902088</v>
+        <v>-5.4807381697422</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.591452447560272</v>
+        <v>-2.565985610790512</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-15.15229393514415</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.52278352704317</v>
+        <v>-33.50269459782702</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.609842174076824</v>
+        <v>-5.633240960941879</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.187231713369395</v>
+        <v>-3.160845743308655</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-15.5134353846419</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.68591483729596</v>
+        <v>-35.66503877797423</v>
       </c>
       <c r="F96" t="n">
-        <v>-5.610179515550641</v>
+        <v>-5.63174981384747</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.695282639958595</v>
+        <v>-3.666681949787143</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-15.88544020175277</v>
       </c>
       <c r="E97" t="n">
-        <v>-37.74026574475989</v>
+        <v>-37.72485803961881</v>
       </c>
       <c r="F97" t="n">
-        <v>-5.542989894178628</v>
+        <v>-5.571634585411883</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.124439662736389</v>
+        <v>-4.093458026220749</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-16.26786566157961</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.18705967793451</v>
+        <v>-40.16298620812182</v>
       </c>
       <c r="F98" t="n">
-        <v>-5.683900850096851</v>
+        <v>-5.706590730966203</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.599641352186788</v>
+        <v>-4.569759742216204</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-16.62379333131563</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.28077442418741</v>
+        <v>-42.26183685608841</v>
       </c>
       <c r="F99" t="n">
-        <v>-5.703706216914724</v>
+        <v>-5.723223132327449</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.848325575479285</v>
+        <v>-4.818820419037452</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-16.96206861128946</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.81858210919652</v>
+        <v>-44.7952297678967</v>
       </c>
       <c r="F100" t="n">
-        <v>-5.544163255826688</v>
+        <v>-5.56382684144542</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.447297362772503</v>
+        <v>-5.423360785152087</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-17.24265256647855</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.93811203395844</v>
+        <v>-46.91519359201806</v>
       </c>
       <c r="F101" t="n">
-        <v>-5.528146869330675</v>
+        <v>-5.552088335957957</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.926894269396258</v>
+        <v>-5.906707560042766</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-17.48446848864388</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.55262579220602</v>
+        <v>-49.52789230646629</v>
       </c>
       <c r="F102" t="n">
-        <v>-5.451169456211099</v>
+        <v>-5.46530357506335</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.308843041867122</v>
+        <v>-6.283395761124829</v>
       </c>
     </row>
   </sheetData>
